--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278198</v>
+        <v>278199</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752272844</v>
+        <v>1752276968</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108918</v>
+        <v>108920</v>
       </c>
       <c r="D19" t="n">
         <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344661139</v>
+        <v>344665282</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17552</v>
+        <v>17556</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38617029</v>
+        <v>38619107</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5676</v>
+        <v>5678</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17154135</v>
+        <v>17162226</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126045</v>
+        <v>126047</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715909738</v>
+        <v>715970384</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285015</v>
+        <v>285023</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1210449027</v>
+        <v>1210861599</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562610</v>
+        <v>562613</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1284964870</v>
+        <v>1285058739</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367402</v>
+        <v>367415</v>
       </c>
       <c r="D170" t="n">
         <v>38111</v>
       </c>
       <c r="E170" t="n">
-        <v>2846007800</v>
+        <v>2846304604</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115167</v>
+        <v>115169</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>447133103</v>
+        <v>447140114</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54391</v>
+        <v>54392</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151899608</v>
+        <v>151908108</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357251</v>
+        <v>357255</v>
       </c>
       <c r="D174" t="n">
         <v>69789</v>
       </c>
       <c r="E174" t="n">
-        <v>1018012119</v>
+        <v>1018552234</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125556</v>
+        <v>125559</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>813094681</v>
+        <v>813138243</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96760</v>
+        <v>96761</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174753446</v>
+        <v>174754897</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235720</v>
+        <v>235723</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>812690434</v>
+        <v>812710859</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84976</v>
+        <v>84977</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156520709</v>
+        <v>156521773</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220645</v>
+        <v>220650</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1370900167</v>
+        <v>1371052430</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103583</v>
+        <v>103584</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>303298714</v>
+        <v>303300964</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
